--- a/Catalogo de datos/Tabla de Hechos.xlsx
+++ b/Catalogo de datos/Tabla de Hechos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f75905d63c25c4bd/Escritorio/Icesi/TDG/TDG/Catalogo de datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:20001_{03983EFB-8BD3-490C-A62C-33BA4BFCA266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40B8421-48A2-42C9-8948-9EAB2D949448}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:20001_{03983EFB-8BD3-490C-A62C-33BA4BFCA266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42486887-522A-45F9-8A13-34904140F62E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
